--- a/data/custom.xlsx
+++ b/data/custom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibc\OneDrive\Documents\Dev\Backtesting-Investment-Strategies\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Backtesting-Investment-Strategies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4793B538-7AEC-4E95-8800-C4B2B03CEFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3E4D9-CC53-4D56-8A9F-BA57DCAABB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73D63CE4-5804-471A-ACEF-E74A2D14758E}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{73D63CE4-5804-471A-ACEF-E74A2D14758E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -420,12 +420,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45201</v>
       </c>
@@ -447,7 +447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45202</v>
       </c>
@@ -458,7 +458,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45203</v>
       </c>
@@ -469,7 +469,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45204</v>
       </c>
@@ -480,7 +480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45205</v>
       </c>
@@ -491,7 +491,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45206</v>
       </c>
@@ -502,7 +502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45207</v>
       </c>
@@ -513,7 +513,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45208</v>
       </c>
@@ -524,7 +524,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45209</v>
       </c>
@@ -535,7 +535,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45210</v>
       </c>
@@ -546,7 +546,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45211</v>
       </c>
